--- a/overview csv tuned hyperparameter/Hyperpars_xgboost.xlsx
+++ b/overview csv tuned hyperparameter/Hyperpars_xgboost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Bl\Desktop\DAC\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Bl\Desktop\DAC\github\overview csv tuned hyperparameter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9601DEE0-425E-407B-98C4-2FB3E378D090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593BED0A-ACE2-4DB9-9F87-13DF9EDE4980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>Column1</t>
   </si>
@@ -42,9 +42,6 @@
     <t>nRatioSMOTE</t>
   </si>
   <si>
-    <t>AUCAverage</t>
-  </si>
-  <si>
     <t>0.99</t>
   </si>
   <si>
@@ -166,6 +163,21 @@
   </si>
   <si>
     <t>0.9998594</t>
+  </si>
+  <si>
+    <t>0.0566</t>
+  </si>
+  <si>
+    <t>0.9991029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9443943  </t>
+  </si>
+  <si>
+    <t>AUCAverage_on training</t>
+  </si>
+  <si>
+    <t>AUC on test</t>
   </si>
 </sst>
 </file>
@@ -258,11 +270,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -543,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,10 +570,11 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,16 +591,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -594,25 +611,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -620,25 +637,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>489</v>
       </c>
       <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -646,25 +666,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>131</v>
       </c>
       <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -672,25 +692,25 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>386</v>
       </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -698,25 +718,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>206</v>
       </c>
       <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -724,25 +744,25 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>157</v>
       </c>
       <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -750,25 +770,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>172</v>
       </c>
       <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -776,25 +796,25 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>345</v>
       </c>
       <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -802,33 +822,33 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>220</v>
       </c>
       <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -840,13 +860,13 @@
         <v>151</v>
       </c>
       <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -854,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -866,13 +886,13 @@
         <v>497</v>
       </c>
       <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -880,7 +900,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>20</v>
@@ -892,13 +912,13 @@
         <v>139</v>
       </c>
       <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -906,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -918,13 +938,13 @@
         <v>311</v>
       </c>
       <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -932,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -944,10 +964,10 @@
         <v>481</v>
       </c>
       <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
         <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -958,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>20</v>
@@ -970,10 +990,10 @@
         <v>246</v>
       </c>
       <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
         <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -996,10 +1016,10 @@
         <v>383</v>
       </c>
       <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
         <v>41</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1010,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>20</v>
@@ -1022,10 +1042,10 @@
         <v>225</v>
       </c>
       <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
         <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1036,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -1048,14 +1068,41 @@
         <v>459</v>
       </c>
       <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
         <v>45</v>
       </c>
-      <c r="H20" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <v>851</v>
+      </c>
+      <c r="G22" t="s">
         <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>